--- a/eos/02.설계/TEOSPI-프로그램목록_v0.1_20190827.xlsx
+++ b/eos/02.설계/TEOSPI-프로그램목록_v0.1_20190827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark_scala\eos\02.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98220912-2335-46F5-9B42-6E0DEFB54138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09992BD-064C-4BFA-ACFB-3CC991205DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="17700" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="18120" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="52" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>sccomz.ett.core</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>DateUtil.java</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>sccomz.ett.extract.meta</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>FileUtil.java</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -94,10 +86,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>sccomz.schedule.control</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RealJob.java</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -106,10 +94,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>sccomz.schedule.policy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>JobMonitor.java</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -118,15 +102,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>sccomz.comm.util</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>로그</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sccomz.schedule.log</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -218,6 +194,24 @@
   <si>
     <t>시나리오별로 수행진행상태를 기록한다.(스케줄진행상태코드 참조)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sccomz.ett.core</t>
+  </si>
+  <si>
+    <t>com.sccomz.ett.extract.meta</t>
+  </si>
+  <si>
+    <t>com.sccomz.schedule.control</t>
+  </si>
+  <si>
+    <t>com.sccomz.schedule.policy</t>
+  </si>
+  <si>
+    <t>com.sccomz.schedule.log</t>
+  </si>
+  <si>
+    <t>com.sccomz.comm.util</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1294,13 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="39.875" customWidth="1"/>
   </cols>
@@ -1322,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.3">
@@ -1330,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1344,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,13 +1352,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
@@ -1372,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,13 +1380,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -1400,83 +1394,83 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/eos/02.설계/TEOSPI-프로그램목록_v0.1_20190827.xlsx
+++ b/eos/02.설계/TEOSPI-프로그램목록_v0.1_20190827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark_scala\eos\02.설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09992BD-064C-4BFA-ACFB-3CC991205DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B36CC8-4C37-4C68-90BF-F1403A8FAF4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="18120" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="17700" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="52" r:id="rId1"/>
@@ -196,12 +196,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>com.sccomz.ett.core</t>
-  </si>
-  <si>
-    <t>com.sccomz.ett.extract.meta</t>
-  </si>
-  <si>
     <t>com.sccomz.schedule.control</t>
   </si>
   <si>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>com.sccomz.comm.util</t>
+  </si>
+  <si>
+    <t>com.sccomz.etl.core</t>
+  </si>
+  <si>
+    <t>com.sccomz.etl.extract.meta</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1352,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
@@ -1422,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1464,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
